--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26370" windowHeight="9720"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="urlconfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>name</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>data_pwdlogin</t>
+  </si>
+  <si>
+    <t>获取公司信息</t>
+  </si>
+  <si>
+    <t>/getcominfo</t>
+  </si>
+  <si>
+    <t>data_getcominfo</t>
   </si>
 </sst>
 </file>
@@ -51,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,6 +82,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -80,48 +134,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,79 +210,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -218,168 +227,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,12 +408,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +418,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -426,8 +483,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,54 +518,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -517,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,137 +538,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,6 +676,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,15 +1000,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
@@ -1039,9 +1051,27 @@
       </c>
       <c r="F2" s="2"/>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://api2-t.yunxitech.cn/v1" tooltip="http://api2-t.yunxitech.cn/v1"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://api2-t.yunxitech.cn/v1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="9210" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="urlconfig" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -90,59 +90,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,10 +120,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,25 +182,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,24 +227,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -257,7 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,145 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,21 +418,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,35 +441,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +474,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -526,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,16 +538,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,112 +559,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9210" windowHeight="6555"/>
+    <workbookView windowWidth="21525" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="urlconfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -62,8 +62,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,7 +91,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,7 +113,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,9 +163,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,47 +172,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,37 +202,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,25 +227,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,151 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,30 +418,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,6 +436,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -471,26 +456,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +483,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -526,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,133 +538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21525" windowHeight="9720"/>
+    <workbookView windowWidth="25260" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="urlconfig" sheetId="1" r:id="rId1"/>
@@ -91,12 +91,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -105,7 +134,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,7 +142,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,42 +179,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -170,15 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -202,14 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -227,25 +227,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,31 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,37 +383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,79 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,6 +431,36 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -460,17 +490,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,21 +510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -507,17 +518,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -526,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,133 +538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,14 +1003,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25260" windowHeight="11820"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="urlconfig" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>是否运行</t>
+  </si>
+  <si>
     <t>host</t>
   </si>
   <si>
@@ -31,9 +37,24 @@
     <t>data</t>
   </si>
   <si>
+    <t>case依赖</t>
+  </si>
+  <si>
+    <t>except</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>yx-001</t>
+  </si>
+  <si>
     <t>登录</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>http://api2-t.yunxitech.cn/v1</t>
   </si>
   <si>
@@ -44,6 +65,12 @@
   </si>
   <si>
     <t>data_pwdlogin</t>
+  </si>
+  <si>
+    <t>error:0</t>
+  </si>
+  <si>
+    <t>yx-002</t>
   </si>
   <si>
     <t>获取公司信息</t>
@@ -60,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,6 +118,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -98,59 +162,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,30 +221,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -196,23 +239,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,109 +254,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,72 +435,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,16 +449,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,52 +478,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,7 +500,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,16 +565,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,112 +586,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -675,10 +702,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,23 +1027,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="2" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="30.625" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1032,46 +1060,75 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://api2-t.yunxitech.cn/v1" tooltip="http://api2-t.yunxitech.cn/v1"/>
-    <hyperlink ref="B3" r:id="rId1" display="http://api2-t.yunxitech.cn/v1"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://api2-t.yunxitech.cn/v1" tooltip="http://api2-t.yunxitech.cn/v1"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://api2-t.yunxitech.cn/v1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="22860" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="urlconfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -87,9 +87,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -117,13 +117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -133,59 +126,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,49 +200,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,19 +254,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,31 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,127 +410,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +445,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,34 +479,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,26 +504,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +525,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,16 +565,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,112 +586,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
